--- a/rhla_analysis/rhla1_6_uniform_result/result.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,1100 +448,550 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>k=0标准差</t>
+          <t>k=0 Standard Deviation</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.497468032045479</v>
+        <v>2.532390445212832</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>k=0中位数</t>
+          <t>k=0 Median</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.046832653909339</v>
+        <v>8.867800712519934</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>k=0平均值</t>
+          <t>k=0 Mean</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.969768466663918</v>
+        <v>8.904879095883599</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>k=0去出最大值最小值平均数</t>
+          <t>k=0 Mean without extremes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.85872272577878</v>
+        <v>8.768466843274201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>k=0ex_rs平均值</t>
+          <t>k=0 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1183716965046888</v>
+        <v>0.0725050916496945</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>k=1标准差</t>
+          <t>k=1 Standard Deviation</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.575684624903481</v>
+        <v>8.36192686225794</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>k=1中位数</t>
+          <t>k=1 Median</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.100135127151871</v>
+        <v>8.109183811205877</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>k=1平均值</t>
+          <t>k=1 Mean</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.22532259411463</v>
+        <v>11.1593766003608</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>k=1去出最大值最小值平均数</t>
+          <t>k=1 Mean without extremes</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.388125824559737</v>
+        <v>9.494904105498597</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>k=1ex_rs平均值</t>
+          <t>k=1 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1331202046035805</v>
+        <v>0.08448744059742024</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>k=2标准差</t>
+          <t>k=2 Standard Deviation</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.889648324422407</v>
+        <v>3.312351549917714</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>k=2中位数</t>
+          <t>k=2 Median</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.7879041342899</v>
+        <v>11.38078152959853</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>k=2平均值</t>
+          <t>k=2 Mean</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.64887976778404</v>
+        <v>12.73578339529852</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>k=2去出最大值最小值平均数</t>
+          <t>k=2 Mean without extremes</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12.121994100071</v>
+        <v>12.03564259045362</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>k=2ex_rs平均值</t>
+          <t>k=2 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1439471440750213</v>
+        <v>0.09765784114052953</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>k=3标准差</t>
+          <t>k=3 Standard Deviation</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.245470956834893</v>
+        <v>5.471934548115571</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>k=3中位数</t>
+          <t>k=3 Median</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.37738496750962</v>
+        <v>15.57244704342352</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>k=3平均值</t>
+          <t>k=3 Mean</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.99400384849602</v>
+        <v>17.3325519456082</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>k=3去出最大值最小值平均数</t>
+          <t>k=3 Mean without extremes</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16.62928876042301</v>
+        <v>16.79904400074746</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>k=3ex_rs平均值</t>
+          <t>k=3 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.159846547314578</v>
+        <v>0.1077393075356416</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>k=4标准差</t>
+          <t>k=4 Standard Deviation</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.368893413916595</v>
+        <v>6.703533876367489</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>k=4中位数</t>
+          <t>k=4 Median</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21.6908082143409</v>
+        <v>22.02078946338673</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>k=4平均值</t>
+          <t>k=4 Mean</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>22.66803740064029</v>
+        <v>21.71063733322112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>k=4去出最大值最小值平均数</t>
+          <t>k=4 Mean without extremes</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.99750659286218</v>
+        <v>21.57750533449595</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>k=4ex_rs平均值</t>
+          <t>k=4 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1736999147485081</v>
+        <v>0.1226748133061779</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>k=5标准差</t>
+          <t>k=5 Standard Deviation</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12.03405373063506</v>
+        <v>9.468623505365686</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>k=5中位数</t>
+          <t>k=5 Median</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.64822613442077</v>
+        <v>32.71383250142456</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>k=5平均值</t>
+          <t>k=5 Mean</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>36.92370716293817</v>
+        <v>33.79209472603519</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>k=5去出最大值最小值平均数</t>
+          <t>k=5 Mean without extremes</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>37.68469798692601</v>
+        <v>33.89511539917845</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>k=5ex_rs平均值</t>
+          <t>k=5 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.190920716112532</v>
+        <v>0.1375763747454175</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>k=6标准差</t>
+          <t>k=6 Standard Deviation</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>11.34928910032536</v>
+        <v>16.21760775925032</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>k=6中位数</t>
+          <t>k=6 Median</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28.57920522758427</v>
+        <v>30.00390280544964</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>k=6平均值</t>
+          <t>k=6 Mean</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.75836438987372</v>
+        <v>35.27375777562581</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>k=6去出最大值最小值平均数</t>
+          <t>k=6 Mean without extremes</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.09492128042863</v>
+        <v>31.88679640100274</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>k=6ex_rs平均值</t>
+          <t>k=6 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2041346973572037</v>
+        <v>0.1537678207739308</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>k=7标准差</t>
+          <t>k=7 Standard Deviation</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>11.28581051273258</v>
+        <v>11.66633975952097</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>k=7中位数</t>
+          <t>k=7 Median</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>36.61816859136786</v>
+        <v>36.51102665662152</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>k=7平均值</t>
+          <t>k=7 Mean</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>38.53906278637818</v>
+        <v>37.96356285219535</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>k=7去出最大值最小值平均数</t>
+          <t>k=7 Mean without extremes</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>37.96263708955098</v>
+        <v>37.69883050086552</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>k=7ex_rs平均值</t>
+          <t>k=7 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2241687979539642</v>
+        <v>0.1679565512559403</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>k=8标准差</t>
+          <t>k=8 Standard Deviation</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>37.97225761177145</v>
+        <v>37.59683648163821</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>k=8中位数</t>
+          <t>k=8 Median</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.1503320527635</v>
+        <v>84.07578897303625</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>k=8平均值</t>
+          <t>k=8 Mean</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>84.83761735333344</v>
+        <v>88.0751377759174</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>k=8去出最大值最小值平均数</t>
+          <t>k=8 Mean without extremes</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>82.30988444406677</v>
+        <v>85.2462036474106</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>k=8ex_rs平均值</t>
+          <t>k=8 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2508525149190111</v>
+        <v>0.1940257976917855</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>k=9标准差</t>
+          <t>k=9 Standard Deviation</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>23.22874241745215</v>
+        <v>39.2650482782678</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>k=9中位数</t>
+          <t>k=9 Median</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>86.3091851223314</v>
+        <v>120.1571235788281</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>k=9平均值</t>
+          <t>k=9 Mean</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>90.83126712540954</v>
+        <v>116.040389444519</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>k=9去出最大值最小值平均数</t>
+          <t>k=9 Mean without extremes</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>91.48379153922727</v>
+        <v>115.2405089630939</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>k=9ex_rs平均值</t>
+          <t>k=9 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2668797953964195</v>
+        <v>0.2101154107264087</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>k=10标准差</t>
+          <t>k=10 Standard Deviation</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>55.64664962478142</v>
+        <v>41.95514122146149</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>k=10中位数</t>
+          <t>k=10 Median</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>115.8380107970371</v>
+        <v>107.4050376034249</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>k=10平均值</t>
+          <t>k=10 Mean</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>117.8908659227335</v>
+        <v>116.1600379654112</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>k=10去出最大值最小值平均数</t>
+          <t>k=10 Mean without extremes</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>109.2410432400807</v>
+        <v>112.2315626512362</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>k=10ex_rs平均值</t>
+          <t>k=10 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2887894288150042</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>k=0 Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>2.532390445212845</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>k=0 Median</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>8.867800712519927</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>k=0 Mean</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>8.904879095883606</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>k=0 Mean without extremes</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>8.768466843274201</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>k=0 Extrema RS Mean</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.0725050916496945</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>k=1 Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>8.361926862257972</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>k=1 Median</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>8.109183811205837</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>k=1 Mean</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>11.15937660036081</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>k=1 Mean without extremes</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>9.494904105498591</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>k=1 Extrema RS Mean</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.08448744059742024</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>k=2 Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>3.31235154991773</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>k=2 Median</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>11.38078152959851</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>k=2 Mean</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>12.73578339529854</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>k=2 Mean without extremes</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>12.03564259045363</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>k=2 Extrema RS Mean</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.09765784114052953</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>k=3 Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>5.471934548115593</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>k=3 Median</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>15.57244704342354</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>k=3 Mean</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>17.33255194560823</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>k=3 Mean without extremes</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>16.79904400074748</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>k=3 Extrema RS Mean</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.1077393075356416</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>k=4 Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>6.703533876367494</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>k=4 Median</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>22.02078946338676</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>k=4 Mean</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>21.71063733322112</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>k=4 Mean without extremes</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>21.57750533449596</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>k=4 Extrema RS Mean</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.1226748133061779</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>k=5 Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>9.468623505365755</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>k=5 Median</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>32.71383250142466</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>k=5 Mean</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>33.79209472603528</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>k=5 Mean without extremes</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>33.89511539917851</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>k=5 Extrema RS Mean</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0.1375763747454175</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>k=6 Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>16.21760775925032</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>k=6 Median</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>30.00390280544961</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>k=6 Mean</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>35.2737577756258</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>k=6 Mean without extremes</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>31.88679640100275</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>k=6 Extrema RS Mean</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0.1537678207739308</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>k=7 Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>11.6663397595209</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>k=7 Median</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>36.51102665662146</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>k=7 Mean</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>37.96356285219524</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>k=7 Mean without extremes</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>37.69883050086541</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>k=7 Extrema RS Mean</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.1679565512559403</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>k=8 Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>37.5968364816382</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>k=8 Median</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>84.07578897303608</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>k=8 Mean</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>88.07513777591743</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>k=8 Mean without extremes</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>85.24620364741062</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>k=8 Extrema RS Mean</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0.1940257976917855</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>k=9 Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>39.26504827826805</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>k=9 Median</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>120.157123578828</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>k=9 Mean</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>116.0403894445194</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>k=9 Mean without extremes</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>115.2405089630944</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>k=9 Extrema RS Mean</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>0.2101154107264087</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>k=10 Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>41.95514122146159</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>k=10 Median</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>107.4050376034253</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>k=10 Mean</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>116.1600379654112</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>k=10 Mean without extremes</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>112.2315626512362</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>k=10 Extrema RS Mean</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
         <v>0.2294976238968092</v>
       </c>
     </row>
